--- a/PlantPollinatorOffset.xlsx
+++ b/PlantPollinatorOffset.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">TONGUE-TUBE</t>
   </si>
@@ -28,10 +28,7 @@
     <t xml:space="preserve">POLLEN_GRAINS_DEPOSITED</t>
   </si>
   <si>
-    <t xml:space="preserve">NECTAR_VOLUME_CONSUMED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NECTAR_VOLUME_BEFORE</t>
+    <t xml:space="preserve">PERCENT_NECTAR_CONSUMED</t>
   </si>
 </sst>
 </file>
@@ -46,6 +43,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -134,16 +132,17 @@
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -153,12 +152,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -168,10 +165,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.544</v>
+        <v>0.882352941176471</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -182,10 +176,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1.702</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1.766</v>
+        <v>0.963759909399773</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -196,10 +187,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1.344</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1.648</v>
+        <v>0.815533980582524</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -210,10 +198,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1.216</v>
+        <v>0.43421052631579</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -226,9 +211,6 @@
       <c r="C6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1.118</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -238,10 +220,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.544</v>
+        <v>0.121323529411765</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -254,9 +233,6 @@
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0.544</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -266,10 +242,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.478</v>
+        <v>0.866108786610879</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,10 +253,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.544</v>
+        <v>0.882352941176471</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -294,10 +264,7 @@
         <v>71</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>2.808</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>3.166</v>
+        <v>0.886923562855338</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -308,10 +275,7 @@
         <v>106</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.544</v>
+        <v>0.694852941176471</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,10 +286,7 @@
         <v>127</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.288</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.416</v>
+        <v>0.692307692307692</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,9 +299,6 @@
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>0.766</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -350,10 +308,7 @@
         <v>129</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1.656</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>2.014</v>
+        <v>0.822244289970209</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,9 +321,6 @@
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>0.934</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -378,10 +330,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0.254</v>
+        <v>0.748031496062992</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,10 +341,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.478</v>
+        <v>0.364016736401674</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,10 +352,7 @@
         <v>117</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0.688</v>
+        <v>0.479651162790698</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,9 +365,6 @@
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>0.544</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -436,9 +376,6 @@
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>0.848</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -450,9 +387,6 @@
       <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>1.766</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -464,9 +398,6 @@
       <c r="C23" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>2.558</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -476,10 +407,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0.478</v>
+        <v>0.866108786610879</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,10 +418,7 @@
         <v>104</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>2.014</v>
+        <v>0.729890764647468</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,10 +429,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0.478</v>
+        <v>0.866108786610879</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,10 +440,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>2.014</v>
+        <v>0.968222442899702</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,10 +451,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0.358</v>
+        <v>0.821229050279329</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,10 +462,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>2.014</v>
+        <v>0.968222442899702</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,10 +473,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>1.584</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1.648</v>
+        <v>0.961165048543689</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,10 +484,7 @@
         <v>108</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1.648</v>
+        <v>0.58252427184466</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,10 +495,7 @@
         <v>115</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>3.328</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>4.016</v>
+        <v>0.828685258964143</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,9 +508,6 @@
       <c r="C33" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1.216</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -616,10 +517,7 @@
         <v>122</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.426</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>2.704</v>
+        <v>0.157544378698225</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,10 +528,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0.934</v>
+        <v>0.931477516059957</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -644,10 +539,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1.534</v>
+        <v>0.958279009126467</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,10 +550,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1.424</v>
+        <v>0.955056179775281</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,10 +561,7 @@
         <v>61</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.702</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>1.118</v>
+        <v>0.627906976744186</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,10 +572,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1.224</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>1.318</v>
+        <v>0.928679817905918</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -700,10 +583,7 @@
         <v>83</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0.614</v>
+        <v>0.791530944625407</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,10 +594,7 @@
         <v>62</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>2.854</v>
+        <v>0.501051156271899</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,10 +605,7 @@
         <v>298</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>1.152</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>1.766</v>
+        <v>0.652321630804077</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,10 +616,7 @@
         <v>209</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>0.304</v>
+        <v>0.789473684210526</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,10 +627,7 @@
         <v>21</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>1.344</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>2.278</v>
+        <v>0.589991220368745</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,10 +638,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.754</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>0.848</v>
+        <v>0.889150943396226</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,10 +649,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0.614</v>
+        <v>0.895765472312704</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,10 +660,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0.702</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>0.766</v>
+        <v>0.91644908616188</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,10 +671,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>1.424</v>
+        <v>0.955056179775281</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,10 +682,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>0.478</v>
+        <v>0.866108786610879</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,10 +693,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>0.848</v>
+        <v>0.924528301886793</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,9 +706,6 @@
       <c r="C51" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>0.688</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
@@ -870,9 +717,6 @@
       <c r="C52" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <v>0.614</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
@@ -882,10 +726,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1.064</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>1.318</v>
+        <v>0.807283763277693</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -896,10 +737,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>3.664</v>
+        <v>0.414847161572052</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,9 +750,6 @@
       <c r="C55" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D55" s="0" t="n">
-        <v>0.614</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
@@ -924,10 +759,7 @@
         <v>127</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>0.614</v>
+        <v>0.895765472312704</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,10 +770,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>1.534</v>
+        <v>0.645371577574967</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,9 +783,6 @@
       <c r="C58" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D58" s="0" t="n">
-        <v>0.766</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
@@ -966,10 +792,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>2.494</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>2.558</v>
+        <v>0.974980453479281</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,10 +803,7 @@
         <v>23</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>2.242</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>3.008</v>
+        <v>0.745345744680851</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,10 +814,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>0.478</v>
+        <v>0.866108786610879</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,10 +825,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>0.352</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>0.416</v>
+        <v>0.846153846153846</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,10 +836,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D63" s="0" t="n">
-        <v>0.614</v>
+        <v>0.895765472312704</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,10 +847,7 @@
         <v>32</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>0.934</v>
+        <v>0.931477516059957</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,10 +858,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>0.544</v>
+        <v>0.882352941176471</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,10 +869,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>3.494</v>
+        <v>0.981682884945621</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,10 +880,7 @@
         <v>36</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>1.254</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>1.318</v>
+        <v>0.95144157814871</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,10 +891,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>2.214</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <v>2.278</v>
+        <v>0.971905179982441</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,10 +902,7 @@
         <v>57</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>1.008</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>1.216</v>
+        <v>0.828947368421053</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,10 +913,7 @@
         <v>19</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>1.054</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>1.118</v>
+        <v>0.942754919499106</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1134,10 +924,7 @@
         <v>12</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>0.638</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>0.766</v>
+        <v>0.83289817232376</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,10 +935,7 @@
         <v>24</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>0.358</v>
+        <v>0.821229050279329</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,10 +946,7 @@
         <v>168</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>1.648</v>
+        <v>0.782766990291262</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,10 +957,7 @@
         <v>105</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>3.774</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>3.838</v>
+        <v>0.983324648254299</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,10 +968,7 @@
         <v>16</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>3.494</v>
+        <v>0.981682884945621</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1204,10 +979,7 @@
         <v>129</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>2.416</v>
+        <v>0.68294701986755</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,10 +990,7 @@
         <v>42</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>1.584</v>
-      </c>
-      <c r="D77" s="0" t="n">
-        <v>1.648</v>
+        <v>0.961165048543689</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,10 +1001,7 @@
         <v>12</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <v>1.024</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,10 +1012,7 @@
         <v>2</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="D79" s="0" t="n">
-        <v>0.934</v>
+        <v>0.931477516059957</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,10 +1023,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="D80" s="0" t="n">
-        <v>1.888</v>
+        <v>0.966101694915254</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1274,10 +1034,7 @@
         <v>48</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>2.214</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>2.278</v>
+        <v>0.971905179982441</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,10 +1045,7 @@
         <v>39</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>0.934</v>
+        <v>0.931477516059957</v>
       </c>
     </row>
   </sheetData>
